--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.70442434794097</v>
+        <v>5.717547</v>
       </c>
       <c r="H2">
-        <v>5.70442434794097</v>
+        <v>17.152641</v>
       </c>
       <c r="I2">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="J2">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>29.65630610373241</v>
+        <v>38.563346988441</v>
       </c>
       <c r="R2">
-        <v>29.65630610373241</v>
+        <v>347.070122895969</v>
       </c>
       <c r="S2">
-        <v>0.003010169210831603</v>
+        <v>0.003670920845496171</v>
       </c>
       <c r="T2">
-        <v>0.003010169210831603</v>
+        <v>0.003670920845496172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.70442434794097</v>
+        <v>5.717547</v>
       </c>
       <c r="H3">
-        <v>5.70442434794097</v>
+        <v>17.152641</v>
       </c>
       <c r="I3">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="J3">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>1038.48689987912</v>
+        <v>1043.633472729903</v>
       </c>
       <c r="R3">
-        <v>1038.48689987912</v>
+        <v>9392.701254569127</v>
       </c>
       <c r="S3">
-        <v>0.1054083162256901</v>
+        <v>0.09934552286786974</v>
       </c>
       <c r="T3">
-        <v>0.1054083162256901</v>
+        <v>0.09934552286786977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.70442434794097</v>
+        <v>5.717547</v>
       </c>
       <c r="H4">
-        <v>5.70442434794097</v>
+        <v>17.152641</v>
       </c>
       <c r="I4">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="J4">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>1420.261903786431</v>
+        <v>1424.429146947807</v>
       </c>
       <c r="R4">
-        <v>1420.261903786431</v>
+        <v>12819.86232253026</v>
       </c>
       <c r="S4">
-        <v>0.1441591761003887</v>
+        <v>0.1355942120384511</v>
       </c>
       <c r="T4">
-        <v>0.1441591761003887</v>
+        <v>0.1355942120384511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.70442434794097</v>
+        <v>5.717547</v>
       </c>
       <c r="H5">
-        <v>5.70442434794097</v>
+        <v>17.152641</v>
       </c>
       <c r="I5">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="J5">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>1037.701193176312</v>
+        <v>1068.787271871891</v>
       </c>
       <c r="R5">
-        <v>1037.701193176312</v>
+        <v>9619.085446847019</v>
       </c>
       <c r="S5">
-        <v>0.1053285655609491</v>
+        <v>0.1017399624802152</v>
       </c>
       <c r="T5">
-        <v>0.1053285655609491</v>
+        <v>0.1017399624802152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.70442434794097</v>
+        <v>5.717547</v>
       </c>
       <c r="H6">
-        <v>5.70442434794097</v>
+        <v>17.152641</v>
       </c>
       <c r="I6">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="J6">
-        <v>0.3668733080951783</v>
+        <v>0.3498537173739997</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>88.34403659320662</v>
+        <v>99.83089396407601</v>
       </c>
       <c r="R6">
-        <v>88.34403659320662</v>
+        <v>898.478045676684</v>
       </c>
       <c r="S6">
-        <v>0.008967080997318888</v>
+        <v>0.009503099141967394</v>
       </c>
       <c r="T6">
-        <v>0.008967080997318888</v>
+        <v>0.009503099141967395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.19607110059964</v>
+        <v>3.260042333333333</v>
       </c>
       <c r="H7">
-        <v>3.19607110059964</v>
+        <v>9.780127</v>
       </c>
       <c r="I7">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="J7">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>16.61581556829452</v>
+        <v>21.98812597383811</v>
       </c>
       <c r="R7">
-        <v>16.61581556829452</v>
+        <v>197.893133764543</v>
       </c>
       <c r="S7">
-        <v>0.001686535614435195</v>
+        <v>0.002093092957282784</v>
       </c>
       <c r="T7">
-        <v>0.001686535614435195</v>
+        <v>0.002093092957282785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.19607110059964</v>
+        <v>3.260042333333333</v>
       </c>
       <c r="H8">
-        <v>3.19607110059964</v>
+        <v>9.780127</v>
       </c>
       <c r="I8">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="J8">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>581.8427533801896</v>
+        <v>595.0610115812188</v>
       </c>
       <c r="R8">
-        <v>581.8427533801896</v>
+        <v>5355.54910423097</v>
       </c>
       <c r="S8">
-        <v>0.05905810169494115</v>
+        <v>0.05664502804723601</v>
       </c>
       <c r="T8">
-        <v>0.05905810169494115</v>
+        <v>0.05664502804723603</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.19607110059964</v>
+        <v>3.260042333333333</v>
       </c>
       <c r="H9">
-        <v>3.19607110059964</v>
+        <v>9.780127</v>
       </c>
       <c r="I9">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="J9">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>795.7434000527851</v>
+        <v>812.1838473533734</v>
       </c>
       <c r="R9">
-        <v>795.7434000527851</v>
+        <v>7309.654626180361</v>
       </c>
       <c r="S9">
-        <v>0.08076940783464209</v>
+        <v>0.07731337781750232</v>
       </c>
       <c r="T9">
-        <v>0.08076940783464209</v>
+        <v>0.07731337781750233</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.19607110059964</v>
+        <v>3.260042333333333</v>
       </c>
       <c r="H10">
-        <v>3.19607110059964</v>
+        <v>9.780127</v>
       </c>
       <c r="I10">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="J10">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>581.4025381484289</v>
+        <v>609.4032548626549</v>
       </c>
       <c r="R10">
-        <v>581.4025381484289</v>
+        <v>5484.629293763894</v>
       </c>
       <c r="S10">
-        <v>0.05901341904524937</v>
+        <v>0.05801029439325058</v>
       </c>
       <c r="T10">
-        <v>0.05901341904524937</v>
+        <v>0.05801029439325059</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.19607110059964</v>
+        <v>3.260042333333333</v>
       </c>
       <c r="H11">
-        <v>3.19607110059964</v>
+        <v>9.780127</v>
       </c>
       <c r="I11">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="J11">
-        <v>0.2055515343993692</v>
+        <v>0.1994802892067655</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>49.4973383892419</v>
+        <v>56.92177790534978</v>
       </c>
       <c r="R11">
-        <v>49.4973383892419</v>
+        <v>512.2960011481481</v>
       </c>
       <c r="S11">
-        <v>0.005024070210101359</v>
+        <v>0.005418495991493797</v>
       </c>
       <c r="T11">
-        <v>0.005024070210101359</v>
+        <v>0.005418495991493797</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.93009036024365</v>
+        <v>2.093744666666666</v>
       </c>
       <c r="H12">
-        <v>1.93009036024365</v>
+        <v>6.281234</v>
       </c>
       <c r="I12">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861076</v>
       </c>
       <c r="J12">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861077</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>10.03420275911093</v>
+        <v>14.12175572598955</v>
       </c>
       <c r="R12">
-        <v>10.03420275911093</v>
+        <v>127.095801533906</v>
       </c>
       <c r="S12">
-        <v>0.001018489898744194</v>
+        <v>0.00134427770196084</v>
       </c>
       <c r="T12">
-        <v>0.001018489898744194</v>
+        <v>0.001344277701960841</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.93009036024365</v>
+        <v>2.093744666666666</v>
       </c>
       <c r="H13">
-        <v>1.93009036024365</v>
+        <v>6.281234</v>
       </c>
       <c r="I13">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861076</v>
       </c>
       <c r="J13">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861077</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>351.3717480396575</v>
+        <v>382.1747363831109</v>
       </c>
       <c r="R13">
-        <v>351.3717480396575</v>
+        <v>3439.572627447998</v>
       </c>
       <c r="S13">
-        <v>0.03566487389917859</v>
+        <v>0.03637996481040097</v>
       </c>
       <c r="T13">
-        <v>0.03566487389917859</v>
+        <v>0.03637996481040098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.93009036024365</v>
+        <v>2.093744666666666</v>
       </c>
       <c r="H14">
-        <v>1.93009036024365</v>
+        <v>6.281234</v>
       </c>
       <c r="I14">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861076</v>
       </c>
       <c r="J14">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861077</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>480.5452123331151</v>
+        <v>521.6207106765402</v>
       </c>
       <c r="R14">
-        <v>480.5452123331151</v>
+        <v>4694.586396088862</v>
       </c>
       <c r="S14">
-        <v>0.0487762163473092</v>
+        <v>0.04965410136311535</v>
       </c>
       <c r="T14">
-        <v>0.0487762163473092</v>
+        <v>0.04965410136311537</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.93009036024365</v>
+        <v>2.093744666666666</v>
       </c>
       <c r="H15">
-        <v>1.93009036024365</v>
+        <v>6.281234</v>
       </c>
       <c r="I15">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861076</v>
       </c>
       <c r="J15">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861077</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>351.1059043996038</v>
+        <v>391.3859650446229</v>
       </c>
       <c r="R15">
-        <v>351.1059043996038</v>
+        <v>3522.473685401606</v>
       </c>
       <c r="S15">
-        <v>0.03563789028438227</v>
+        <v>0.0372567997831618</v>
       </c>
       <c r="T15">
-        <v>0.03563789028438227</v>
+        <v>0.03725679978316181</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.93009036024365</v>
+        <v>2.093744666666666</v>
       </c>
       <c r="H16">
-        <v>1.93009036024365</v>
+        <v>6.281234</v>
       </c>
       <c r="I16">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861076</v>
       </c>
       <c r="J16">
-        <v>0.124131479741824</v>
+        <v>0.1281151435861077</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>29.89117972527889</v>
+        <v>36.55770591931289</v>
       </c>
       <c r="R16">
-        <v>29.89117972527889</v>
+        <v>329.019353273816</v>
       </c>
       <c r="S16">
-        <v>0.003034009312209797</v>
+        <v>0.003479999927468686</v>
       </c>
       <c r="T16">
-        <v>0.003034009312209797</v>
+        <v>0.003479999927468687</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.61173528932165</v>
+        <v>2.630401</v>
       </c>
       <c r="H17">
-        <v>2.61173528932165</v>
+        <v>7.891203</v>
       </c>
       <c r="I17">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="J17">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>13.57795571958114</v>
+        <v>17.74136119593633</v>
       </c>
       <c r="R17">
-        <v>13.57795571958114</v>
+        <v>159.672250763427</v>
       </c>
       <c r="S17">
-        <v>0.001378187293796986</v>
+        <v>0.001688835065617121</v>
       </c>
       <c r="T17">
-        <v>0.001378187293796986</v>
+        <v>0.001688835065617122</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.61173528932165</v>
+        <v>2.630401</v>
       </c>
       <c r="H18">
-        <v>2.61173528932165</v>
+        <v>7.891203</v>
       </c>
       <c r="I18">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="J18">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>475.4647828560533</v>
+        <v>480.1315197412824</v>
       </c>
       <c r="R18">
-        <v>475.4647828560533</v>
+        <v>4321.183677671541</v>
       </c>
       <c r="S18">
-        <v>0.04826054348042683</v>
+        <v>0.04570466367782677</v>
       </c>
       <c r="T18">
-        <v>0.04826054348042683</v>
+        <v>0.04570466367782679</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.61173528932165</v>
+        <v>2.630401</v>
       </c>
       <c r="H19">
-        <v>2.61173528932165</v>
+        <v>7.891203</v>
       </c>
       <c r="I19">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="J19">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>650.258099318483</v>
+        <v>655.3194669953143</v>
       </c>
       <c r="R19">
-        <v>650.258099318483</v>
+        <v>5897.875202957829</v>
       </c>
       <c r="S19">
-        <v>0.06600238420846447</v>
+        <v>0.06238114893330196</v>
       </c>
       <c r="T19">
-        <v>0.06600238420846447</v>
+        <v>0.06238114893330197</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.61173528932165</v>
+        <v>2.630401</v>
       </c>
       <c r="H20">
-        <v>2.61173528932165</v>
+        <v>7.891203</v>
       </c>
       <c r="I20">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="J20">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>475.1050519178177</v>
+        <v>491.7037164222864</v>
       </c>
       <c r="R20">
-        <v>475.1050519178177</v>
+        <v>4425.333447800577</v>
       </c>
       <c r="S20">
-        <v>0.04822403013346201</v>
+        <v>0.0468062438398706</v>
       </c>
       <c r="T20">
-        <v>0.04822403013346201</v>
+        <v>0.04680624383987061</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.61173528932165</v>
+        <v>2.630401</v>
       </c>
       <c r="H21">
-        <v>2.61173528932165</v>
+        <v>7.891203</v>
       </c>
       <c r="I21">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="J21">
-        <v>0.1679706675062153</v>
+        <v>0.1609528645823613</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N21">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q21">
-        <v>40.44776894181867</v>
+        <v>45.92796234364134</v>
       </c>
       <c r="R21">
-        <v>40.44776894181867</v>
+        <v>413.3516610927721</v>
       </c>
       <c r="S21">
-        <v>0.004105522390064952</v>
+        <v>0.004371973065744834</v>
       </c>
       <c r="T21">
-        <v>0.004105522390064952</v>
+        <v>0.004371973065744834</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.10643707554968</v>
+        <v>2.640944</v>
       </c>
       <c r="H22">
-        <v>2.10643707554968</v>
+        <v>7.922832</v>
       </c>
       <c r="I22">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="J22">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N22">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q22">
-        <v>10.95099853910775</v>
+        <v>17.81247095109866</v>
       </c>
       <c r="R22">
-        <v>10.95099853910775</v>
+        <v>160.312238559888</v>
       </c>
       <c r="S22">
-        <v>0.001111546344139443</v>
+        <v>0.001695604143068354</v>
       </c>
       <c r="T22">
-        <v>0.001111546344139443</v>
+        <v>0.001695604143068355</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.10643707554968</v>
+        <v>2.640944</v>
       </c>
       <c r="H23">
-        <v>2.10643707554968</v>
+        <v>7.922832</v>
       </c>
       <c r="I23">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="J23">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N23">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P23">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q23">
-        <v>383.4755577339919</v>
+        <v>482.0559512681227</v>
       </c>
       <c r="R23">
-        <v>383.4755577339919</v>
+        <v>4338.503561413104</v>
       </c>
       <c r="S23">
-        <v>0.03892346919268078</v>
+        <v>0.04588785409980248</v>
       </c>
       <c r="T23">
-        <v>0.03892346919268078</v>
+        <v>0.0458878540998025</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.10643707554968</v>
+        <v>2.640944</v>
       </c>
       <c r="H24">
-        <v>2.10643707554968</v>
+        <v>7.922832</v>
       </c>
       <c r="I24">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="J24">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N24">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q24">
-        <v>524.4512239357458</v>
+        <v>657.9460753111306</v>
       </c>
       <c r="R24">
-        <v>524.4512239357458</v>
+        <v>5921.514677800175</v>
       </c>
       <c r="S24">
-        <v>0.05323275668090188</v>
+        <v>0.0626311809448484</v>
       </c>
       <c r="T24">
-        <v>0.05323275668090188</v>
+        <v>0.06263118094484843</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.10643707554968</v>
+        <v>2.640944</v>
       </c>
       <c r="H25">
-        <v>2.10643707554968</v>
+        <v>7.922832</v>
       </c>
       <c r="I25">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="J25">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N25">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q25">
-        <v>383.1854247375049</v>
+        <v>493.6745308654987</v>
       </c>
       <c r="R25">
-        <v>383.1854247375049</v>
+        <v>4443.070777789488</v>
       </c>
       <c r="S25">
-        <v>0.03889402016386321</v>
+        <v>0.04699384954288081</v>
       </c>
       <c r="T25">
-        <v>0.03889402016386321</v>
+        <v>0.04699384954288081</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.10643707554968</v>
+        <v>2.640944</v>
       </c>
       <c r="H26">
-        <v>2.10643707554968</v>
+        <v>7.922832</v>
       </c>
       <c r="I26">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="J26">
-        <v>0.1354730102574131</v>
+        <v>0.1615979852507658</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N26">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q26">
-        <v>32.62224945639226</v>
+        <v>46.11204777661867</v>
       </c>
       <c r="R26">
-        <v>32.62224945639226</v>
+        <v>415.008429989568</v>
       </c>
       <c r="S26">
-        <v>0.003311217875827804</v>
+        <v>0.004389496520165717</v>
       </c>
       <c r="T26">
-        <v>0.003311217875827804</v>
+        <v>0.004389496520165718</v>
       </c>
     </row>
   </sheetData>
